--- a/docs/issuers/issuers_master_2025.xlsx
+++ b/docs/issuers/issuers_master_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/473b92f90a934bc4/1 Projects/hedgemind/media/reference_data/issuers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/473b92f90a934bc4/1 Projects/hedgemind/docs/issuers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF789033-A229-4445-AE3E-C7F4B7DD5DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{CF789033-A229-4445-AE3E-C7F4B7DD5DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B787059-7908-41C8-86E4-AE01F4E561C9}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A162D9E8-7F23-4721-A20C-50953EC95A8F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{A162D9E8-7F23-4721-A20C-50953EC95A8F}"/>
   </bookViews>
   <sheets>
     <sheet name="ISSUERS" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
   <si>
     <t>Asset Manager</t>
   </si>
@@ -164,15 +164,9 @@
     <t>SNPC</t>
   </si>
   <si>
-    <t>Government</t>
-  </si>
-  <si>
     <t>Corporate</t>
   </si>
   <si>
-    <t>Supranational</t>
-  </si>
-  <si>
     <t>CONGO</t>
   </si>
   <si>
@@ -224,10 +218,28 @@
     <t>SOCIETE COMMERCIALE GABONAISE DE REASSURANCE</t>
   </si>
   <si>
-    <t>SCO-Re</t>
-  </si>
-  <si>
     <t>GQ</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Sovereign</t>
+  </si>
+  <si>
+    <t>Government-Related Entity (GRE) / Quasi-Sovereign</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>SCG-Re</t>
+  </si>
+  <si>
+    <t>Insurance</t>
   </si>
 </sst>
 </file>
@@ -280,6 +292,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -602,14 +618,14 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="57.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -628,167 +644,167 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -796,10 +812,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -810,198 +826,198 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
